--- a/Germany_analysis.xlsx
+++ b/Germany_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anzhu\Documents\Analysis\Deutschland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C7D1A-23E6-4EBF-B07F-2DCC8E301A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4A9BD-F931-4D49-9FC1-597594B836D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18120" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Main" sheetId="4" r:id="rId1"/>
     <sheet name="Calculations" sheetId="1" r:id="rId2"/>
     <sheet name="Info" sheetId="2" r:id="rId3"/>
+    <sheet name="Autor" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Calculations!$B$5:$V$31</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>City</t>
   </si>
@@ -337,6 +338,12 @@
   </si>
   <si>
     <t>Freiburg im Breisgau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report was made by </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/calmasastone/</t>
   </si>
 </sst>
 </file>
@@ -350,7 +357,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0\ [$€-1]"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ [$€-1]_-;\-* #,##0\ [$€-1]_-;_-* &quot;-&quot;\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +395,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,7 +432,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -434,6 +449,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3935,9 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E333EF-94ED-46BB-A05A-AF0C10ED0DA5}">
   <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4074,4 +4088,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E0D768-18E9-4BA6-A2F4-05BA1712C8C5}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.23046875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3SZaPXyk34hqA/16tgUmzo9fWADysB/JuTRjFK48ORisxO42A5Ln+/kLqLlEnEeAxKBNXbh8mb7g9MI5rF4XVw==" saltValue="oxlef5eKrmZ+fOcVeLyBxA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{7F948FE8-71AD-40F9-9AE1-7FE494871A66}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Germany_analysis.xlsx
+++ b/Germany_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anzhu\Documents\Analysis\Deutschland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4A9BD-F931-4D49-9FC1-597594B836D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D363C33-04D3-4617-9065-C5C68EF9E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18120" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1790,8 +1790,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E2:E27">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1802,15 +1802,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L27">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F2:F27">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1838,15 +1838,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="L2:L27">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3858,20 +3858,20 @@
       <sortCondition descending="1" ref="G5:G26"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="M6:M31">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G6:G31">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G31">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="H6:H31">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3894,8 +3894,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V31">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="L6:L31">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3906,8 +3906,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L31">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="M6:M31">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3930,15 +3930,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H31">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="V6:V31">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Germany_analysis.xlsx
+++ b/Germany_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anzhu\Documents\Analysis\Deutschland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D363C33-04D3-4617-9065-C5C68EF9E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817A4B3-FF56-4047-BFFD-ABF74629CE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18120" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Main" sheetId="4" r:id="rId1"/>
     <sheet name="Calculations" sheetId="1" r:id="rId2"/>
     <sheet name="Info" sheetId="2" r:id="rId3"/>
-    <sheet name="Autor" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Calculations!$B$5:$V$31</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>City</t>
   </si>
@@ -338,12 +337,6 @@
   </si>
   <si>
     <t>Freiburg im Breisgau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report was made by </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/calmasastone/</t>
   </si>
 </sst>
 </file>
@@ -357,7 +350,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0\ [$€-1]"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ [$€-1]_-;\-* #,##0\ [$€-1]_-;_-* &quot;-&quot;\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,14 +388,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -432,7 +417,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -449,7 +434,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1778,6 +1762,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
+    <sortCondition descending="1" ref="G2:G27"/>
+    <sortCondition descending="1" ref="C2:C27"/>
+    <sortCondition descending="1" ref="L2:L27"/>
+  </sortState>
   <conditionalFormatting sqref="D2:D27">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -4088,34 +4077,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E0D768-18E9-4BA6-A2F4-05BA1712C8C5}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.23046875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3SZaPXyk34hqA/16tgUmzo9fWADysB/JuTRjFK48ORisxO42A5Ln+/kLqLlEnEeAxKBNXbh8mb7g9MI5rF4XVw==" saltValue="oxlef5eKrmZ+fOcVeLyBxA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{7F948FE8-71AD-40F9-9AE1-7FE494871A66}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/Germany_analysis.xlsx
+++ b/Germany_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anzhu\Documents\Analysis\Deutschland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817A4B3-FF56-4047-BFFD-ABF74629CE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9039802-D89D-425D-B70A-B3C105D1F322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18120" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$$-C09]#,##0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0\ [$€-1]"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ [$€-1]_-;\-* #,##0\ [$€-1]_-;_-* &quot;-&quot;\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -433,7 +433,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -798,16 +798,16 @@
       <c r="H2" s="8">
         <v>23.296000000000003</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="11">
         <v>1400</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="11">
         <v>1500</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="11">
         <v>3218.7986889521376</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="11">
         <v>319</v>
       </c>
     </row>
@@ -836,16 +836,16 @@
       <c r="H3" s="8">
         <v>14.859</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="11">
         <v>1200</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="11">
         <v>1200</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="11">
         <v>2764.1906229491483</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="11">
         <v>364</v>
       </c>
     </row>
@@ -874,16 +874,16 @@
       <c r="H4" s="8">
         <v>16.978000000000002</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="11">
         <v>1100</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="11">
         <v>1200</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="11">
         <v>3107.8941487766278</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="11">
         <v>808</v>
       </c>
     </row>
@@ -912,16 +912,16 @@
       <c r="H5" s="8">
         <v>17.641000000000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="11">
         <v>1000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="11">
         <v>1200</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="11">
         <v>3047.6530314325482</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="11">
         <v>848</v>
       </c>
     </row>
@@ -950,16 +950,16 @@
       <c r="H6" s="8">
         <v>14.534000000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <v>970</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="11">
         <v>1100</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="11">
         <v>2891.4875064575326</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="11">
         <v>821</v>
       </c>
     </row>
@@ -988,16 +988,16 @@
       <c r="H7" s="8">
         <v>13.702</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <v>740</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="11">
         <v>1000</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="11">
         <v>2574.6759601938261</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="11">
         <v>835</v>
       </c>
     </row>
@@ -1026,16 +1026,16 @@
       <c r="H8" s="8">
         <v>10.231</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="11">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="11">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="11">
         <v>2578.6168210883911</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="11">
         <v>779</v>
       </c>
     </row>
@@ -1064,16 +1064,16 @@
       <c r="H9" s="8">
         <v>14.963000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="11">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="11">
         <v>1050</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="11">
         <v>2097.6709441664107</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="11">
         <v>148</v>
       </c>
     </row>
@@ -1102,16 +1102,16 @@
       <c r="H10" s="8">
         <v>12.012</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="11">
         <v>715</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="11">
         <v>1034</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="11">
         <v>2331.8100265673447</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="11">
         <v>583</v>
       </c>
     </row>
@@ -1140,16 +1140,16 @@
       <c r="H11" s="8">
         <v>15.47</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="11">
         <v>1050</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="11">
         <v>1100</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="11">
         <v>2910.971404875012</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="11">
         <v>761</v>
       </c>
     </row>
@@ -1178,16 +1178,16 @@
       <c r="H12" s="8">
         <v>10.087999999999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="11">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="11">
         <v>1040</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="11">
         <v>2307.5233151584839</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="11">
         <v>568</v>
       </c>
     </row>
@@ -1216,16 +1216,16 @@
       <c r="H13" s="8">
         <v>10.087999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="11">
         <v>630</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="11">
         <v>1030</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="11">
         <v>2536.7850165120417</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="11">
         <v>877</v>
       </c>
     </row>
@@ -1254,16 +1254,16 @@
       <c r="H14" s="8">
         <v>12.116000000000001</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="11">
         <v>766</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="11">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="11">
         <v>2506.2176681206283</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="11">
         <v>740</v>
       </c>
     </row>
@@ -1292,16 +1292,16 @@
       <c r="H15" s="8">
         <v>10.075000000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="11">
         <v>622</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="11">
         <v>950</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="11">
         <v>1996.4639741302624</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="11">
         <v>424</v>
       </c>
     </row>
@@ -1330,16 +1330,16 @@
       <c r="H16" s="8">
         <v>15.600000000000001</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="11">
         <v>800</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="11">
         <v>1050</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="11">
         <v>2787.397119177675</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="11">
         <v>937</v>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       <c r="H17" s="8">
         <v>10.621</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="11">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="11">
         <v>950</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="11">
         <v>2102.2258418162405</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="11">
         <v>452</v>
       </c>
     </row>
@@ -1406,16 +1406,16 @@
       <c r="H18" s="8">
         <v>10.712000000000002</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="11">
         <v>611</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="11">
         <v>930</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="11">
         <v>2359.2517034008897</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="11">
         <v>818</v>
       </c>
     </row>
@@ -1444,16 +1444,16 @@
       <c r="H19" s="8">
         <v>16.003</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="11">
         <v>940</v>
       </c>
       <c r="J19" s="11">
         <v>930</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="11">
         <v>2852.6075439849769</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="11">
         <v>983</v>
       </c>
     </row>
@@ -1482,16 +1482,16 @@
       <c r="H20" s="8">
         <v>15.73</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="11">
         <v>1100</v>
       </c>
       <c r="J20" s="11">
         <v>990</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="11">
         <v>2755.3928667251789</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="11">
         <v>665</v>
       </c>
     </row>
@@ -1520,16 +1520,16 @@
       <c r="H21" s="8">
         <v>10.361000000000001</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="11">
         <v>580</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="11">
         <v>1030</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="11">
         <v>1958.0411129493682</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="11">
         <v>348</v>
       </c>
     </row>
@@ -1558,16 +1558,16 @@
       <c r="H22" s="8">
         <v>8.6450000000000014</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="11">
         <v>450</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="11">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="11">
         <v>2046.81801829083</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="11">
         <v>797</v>
       </c>
     </row>
@@ -1596,16 +1596,16 @@
       <c r="H23" s="8">
         <v>10.829000000000001</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="11">
         <v>770</v>
       </c>
       <c r="J23" s="11">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="11">
         <v>2133.6236781588268</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="11">
         <v>464</v>
       </c>
     </row>
@@ -1634,16 +1634,16 @@
       <c r="H24" s="8">
         <v>12.194000000000001</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="11">
         <v>640</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="11">
         <v>984</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="11">
         <v>2057.3901137120301</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="11">
         <v>433</v>
       </c>
     </row>
@@ -1672,16 +1672,16 @@
       <c r="H25" s="8">
         <v>11.791</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="11">
         <v>528</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="11">
         <v>950</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="11">
         <v>2737.2054910072061</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="11">
         <v>1259</v>
       </c>
     </row>
@@ -1710,16 +1710,16 @@
       <c r="H26" s="8">
         <v>14.066000000000001</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="11">
         <v>1100</v>
       </c>
       <c r="J26" s="11">
         <v>1030</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="11">
         <v>2612.7431791127119</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="11">
         <v>483</v>
       </c>
     </row>
@@ -1748,16 +1748,16 @@
       <c r="H27" s="8">
         <v>10.127000000000001</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="11">
         <v>730</v>
       </c>
       <c r="J27" s="11">
         <v>920</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="11">
         <v>2039.9170939035735</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="11">
         <v>390</v>
       </c>
     </row>
@@ -1840,6 +1840,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1848,10 +1849,10 @@
   <dimension ref="B1:V36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1975,7 +1976,7 @@
         <f t="shared" ref="E6:E31" si="0">IFERROR(ROUND(INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($F$5,$B$5:$U$5,0)),0),"NaN")</f>
         <v>311</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>310.7</v>
       </c>
       <c r="G6" s="2">
@@ -2008,27 +2009,27 @@
       <c r="O6" s="8">
         <v>23.296000000000003</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="11">
         <v>1400</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="11">
         <v>1500</v>
       </c>
       <c r="R6" s="7">
         <v>3183</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="11">
         <f t="shared" ref="S6:S31" si="4">IFERROR(INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($R$5,$B$5:$V$5,0))*$R$2,"NaN")</f>
         <v>2960.19</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="11">
         <f t="shared" ref="T6:T31" si="5">IFERROR(GEOMEAN(INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($S$5,$B$5:$V$5,0)),INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($U$5,$B$5:$V$5,0))),"NaN")</f>
         <v>3218.7986889521376</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="11">
         <v>3500</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="11">
         <f t="shared" ref="V6:V31" si="6">IFERROR(ROUND(INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($T$5,$B$5:$V$5,0))-INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($P$5,$B$5:$V$5,0))-INDEX($B$6:$V$31,MATCH(B6,$B$6:$B$31,0),MATCH($Q$5,$B$5:$V$5,0)),0),"NaN")</f>
         <v>319</v>
       </c>
@@ -2047,7 +2048,7 @@
         <f t="shared" si="0"/>
         <v>892</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>891.85</v>
       </c>
       <c r="G7" s="2">
@@ -2080,27 +2081,27 @@
       <c r="O7" s="8">
         <v>14.859</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="11">
         <v>1200</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="11">
         <v>1200</v>
       </c>
       <c r="R7" s="7">
         <v>2757</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="11">
         <f t="shared" si="4"/>
         <v>2564.0100000000002</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="11">
         <f t="shared" si="5"/>
         <v>2764.1906229491483</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="11">
         <v>2980</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="11">
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
@@ -2119,7 +2120,7 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>248.31</v>
       </c>
       <c r="G8" s="2">
@@ -2152,27 +2153,27 @@
       <c r="O8" s="8">
         <v>16.978000000000002</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="11">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="11">
         <v>1200</v>
       </c>
       <c r="R8" s="7">
         <v>3092</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="11">
         <f t="shared" si="4"/>
         <v>2875.56</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="11">
         <f t="shared" si="5"/>
         <v>3107.8941487766278</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="11">
         <v>3359</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="11">
         <f t="shared" si="6"/>
         <v>808</v>
       </c>
@@ -2191,7 +2192,7 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>207.35</v>
       </c>
       <c r="G9" s="2">
@@ -2224,27 +2225,27 @@
       <c r="O9" s="8">
         <v>17.641000000000002</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="11">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="11">
         <v>1200</v>
       </c>
       <c r="R9" s="7">
         <v>2916</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="11">
         <f t="shared" si="4"/>
         <v>2711.88</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="11">
         <f t="shared" si="5"/>
         <v>3047.6530314325482</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="11">
         <v>3425</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="11">
         <f t="shared" si="6"/>
         <v>848</v>
       </c>
@@ -2263,7 +2264,7 @@
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>217.41</v>
       </c>
       <c r="G10" s="2">
@@ -2296,27 +2297,27 @@
       <c r="O10" s="8">
         <v>14.534000000000001</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="11">
         <v>970</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="11">
         <v>1100</v>
       </c>
       <c r="R10" s="7">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="11">
         <f t="shared" si="4"/>
         <v>2697</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="11">
         <f t="shared" si="5"/>
         <v>2891.4875064575326</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="11">
         <v>3100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="11">
         <f t="shared" si="6"/>
         <v>821</v>
       </c>
@@ -2335,7 +2336,7 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>186.38</v>
       </c>
       <c r="G11" s="2">
@@ -2368,27 +2369,27 @@
       <c r="O11" s="8">
         <v>13.702</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="11">
         <v>740</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="11">
         <v>1000</v>
       </c>
       <c r="R11" s="7">
         <v>2610</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="11">
         <f t="shared" si="4"/>
         <v>2427.3000000000002</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="11">
         <f t="shared" si="5"/>
         <v>2574.6759601938261</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="11">
         <v>2731</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="11">
         <f t="shared" si="6"/>
         <v>835</v>
       </c>
@@ -2407,7 +2408,7 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>210.38</v>
       </c>
       <c r="G12" s="2">
@@ -2440,27 +2441,27 @@
       <c r="O12" s="8">
         <v>10.231</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="11">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="11">
         <v>1000</v>
       </c>
       <c r="R12" s="7">
         <v>2651</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="11">
         <f t="shared" si="4"/>
         <v>2465.4300000000003</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="11">
         <f t="shared" si="5"/>
         <v>2578.6168210883911</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="11">
         <v>2697</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="11">
         <f t="shared" si="6"/>
         <v>779</v>
       </c>
@@ -2479,7 +2480,7 @@
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>405.15</v>
       </c>
       <c r="G13" s="2">
@@ -2512,27 +2513,27 @@
       <c r="O13" s="8">
         <v>14.963000000000001</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="11">
         <v>900</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="11">
         <v>1050</v>
       </c>
       <c r="R13" s="7">
         <v>1921</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="11">
         <f t="shared" si="4"/>
         <v>1786.5300000000002</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="11">
         <f t="shared" si="5"/>
         <v>2097.6709441664107</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="11">
         <v>2463</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="11">
         <f t="shared" si="6"/>
         <v>148</v>
       </c>
@@ -2551,7 +2552,7 @@
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>204.14</v>
       </c>
       <c r="G14" s="2">
@@ -2584,27 +2585,27 @@
       <c r="O14" s="8">
         <v>12.012</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="11">
         <v>715</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="11">
         <v>1034</v>
       </c>
       <c r="R14" s="7">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="11">
         <f t="shared" si="4"/>
         <v>2139</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="11">
         <f t="shared" si="5"/>
         <v>2331.8100265673447</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="11">
         <v>2542</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="11">
         <f t="shared" si="6"/>
         <v>583</v>
       </c>
@@ -2623,7 +2624,7 @@
         <f t="shared" si="0"/>
         <v>755</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>755.3</v>
       </c>
       <c r="G15" s="2">
@@ -2656,27 +2657,27 @@
       <c r="O15" s="8">
         <v>15.47</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="11">
         <v>1050</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="11">
         <v>1100</v>
       </c>
       <c r="R15" s="7">
         <v>2926</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="11">
         <f t="shared" si="4"/>
         <v>2721.1800000000003</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="11">
         <f t="shared" si="5"/>
         <v>2910.971404875012</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="11">
         <v>3114</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="11">
         <f t="shared" si="6"/>
         <v>761</v>
       </c>
@@ -2695,7 +2696,7 @@
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>141.22</v>
       </c>
       <c r="G16" s="2">
@@ -2728,27 +2729,27 @@
       <c r="O16" s="8">
         <v>10.087999999999999</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="11">
         <v>700</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="11">
         <v>1040</v>
       </c>
       <c r="R16" s="7">
         <v>2539</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="11">
         <f t="shared" si="4"/>
         <v>2361.27</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="11">
         <f t="shared" si="5"/>
         <v>2307.5233151584839</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="11">
         <v>2255</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="11">
         <f t="shared" si="6"/>
         <v>568</v>
       </c>
@@ -2767,7 +2768,7 @@
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>280.70999999999998</v>
       </c>
       <c r="G17" s="2">
@@ -2800,27 +2801,27 @@
       <c r="O17" s="8">
         <v>10.087999999999999</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="11">
         <v>630</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="11">
         <v>1030</v>
       </c>
       <c r="R17" s="7">
         <v>2857</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="11">
         <f t="shared" si="4"/>
         <v>2657.01</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="11">
         <f t="shared" si="5"/>
         <v>2536.7850165120417</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="11">
         <v>2422</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="11">
         <f t="shared" si="6"/>
         <v>877</v>
       </c>
@@ -2839,7 +2840,7 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>118.65</v>
       </c>
       <c r="G18" s="2">
@@ -2872,27 +2873,27 @@
       <c r="O18" s="8">
         <v>12.116000000000001</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="11">
         <v>766</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="11">
         <v>1000</v>
       </c>
       <c r="R18" s="7">
         <v>2874</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="11">
         <f t="shared" si="4"/>
         <v>2672.82</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="11">
         <f t="shared" si="5"/>
         <v>2506.2176681206283</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="11">
         <v>2350</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="11">
         <f t="shared" si="6"/>
         <v>740</v>
       </c>
@@ -2911,7 +2912,7 @@
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>297.83</v>
       </c>
       <c r="G19" s="2">
@@ -2944,27 +2945,27 @@
       <c r="O19" s="8">
         <v>10.075000000000001</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="11">
         <v>622</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="11">
         <v>950</v>
       </c>
       <c r="R19" s="7">
         <v>1966</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="11">
         <f t="shared" si="4"/>
         <v>1828.38</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="11">
         <f t="shared" si="5"/>
         <v>1996.4639741302624</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="11">
         <v>2180</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="11">
         <f t="shared" si="6"/>
         <v>424</v>
       </c>
@@ -2983,7 +2984,7 @@
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>173.46</v>
       </c>
       <c r="G20" s="2">
@@ -3016,27 +3017,27 @@
       <c r="O20" s="8">
         <v>15.600000000000001</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="11">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="11">
         <v>1050</v>
       </c>
       <c r="R20" s="7">
         <v>2915</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="11">
         <f t="shared" si="4"/>
         <v>2710.9500000000003</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="11">
         <f t="shared" si="5"/>
         <v>2787.397119177675</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="11">
         <v>2866</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="11">
         <f t="shared" si="6"/>
         <v>937</v>
       </c>
@@ -3055,7 +3056,7 @@
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>325.42</v>
       </c>
       <c r="G21" s="2">
@@ -3088,27 +3089,27 @@
       <c r="O21" s="8">
         <v>10.621</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="11">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="11">
         <v>950</v>
       </c>
       <c r="R21" s="7">
         <v>2011</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="11">
         <f t="shared" si="4"/>
         <v>1870.23</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="11">
         <f t="shared" si="5"/>
         <v>2102.2258418162405</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="11">
         <v>2363</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="11">
         <f t="shared" si="6"/>
         <v>452</v>
       </c>
@@ -3127,7 +3128,7 @@
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>328.31</v>
       </c>
       <c r="G22" s="2">
@@ -3160,27 +3161,27 @@
       <c r="O22" s="8">
         <v>10.712000000000002</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="11">
         <v>611</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="11">
         <v>930</v>
       </c>
       <c r="R22" s="7">
         <v>2465</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="11">
         <f t="shared" si="4"/>
         <v>2292.4500000000003</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="11">
         <f t="shared" si="5"/>
         <v>2359.2517034008897</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="11">
         <v>2428</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="11">
         <f t="shared" si="6"/>
         <v>818</v>
       </c>
@@ -3199,7 +3200,7 @@
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>257.8</v>
       </c>
       <c r="G23" s="2">
@@ -3232,27 +3233,27 @@
       <c r="O23" s="8">
         <v>10.361000000000001</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="11">
         <v>580</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="11">
         <v>1030</v>
       </c>
       <c r="R23" s="7">
         <v>1940</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="11">
         <f t="shared" si="4"/>
         <v>1804.2</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="11">
         <f t="shared" si="5"/>
         <v>1958.0411129493682</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="11">
         <v>2125</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="11">
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
@@ -3271,7 +3272,7 @@
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>201.99</v>
       </c>
       <c r="G24" s="2">
@@ -3304,27 +3305,27 @@
       <c r="O24" s="8">
         <v>8.6450000000000014</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="11">
         <v>450</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="11">
         <v>800</v>
       </c>
       <c r="R24" s="7">
         <v>1877</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="11">
         <f t="shared" si="4"/>
         <v>1745.6100000000001</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="11">
         <f t="shared" si="5"/>
         <v>2046.81801829083</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="11">
         <v>2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="11">
         <f t="shared" si="6"/>
         <v>797</v>
       </c>
@@ -3343,7 +3344,7 @@
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>214.21</v>
       </c>
       <c r="G25" s="2">
@@ -3376,27 +3377,27 @@
       <c r="O25" s="8">
         <v>12.194000000000001</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="11">
         <v>640</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="11">
         <v>984</v>
       </c>
       <c r="R25" s="7">
         <v>2184</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="11">
         <f t="shared" si="4"/>
         <v>2031.1200000000001</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="11">
         <f t="shared" si="5"/>
         <v>2057.3901137120301</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="11">
         <v>2084</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="11">
         <f t="shared" si="6"/>
         <v>433</v>
       </c>
@@ -3415,7 +3416,7 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>114.77</v>
       </c>
       <c r="G26" s="2">
@@ -3448,27 +3449,27 @@
       <c r="O26" s="8">
         <v>11.791</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="11">
         <v>528</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="11">
         <v>950</v>
       </c>
       <c r="R26" s="7">
         <v>3178</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="11">
         <f t="shared" si="4"/>
         <v>2955.54</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="11">
         <f t="shared" si="5"/>
         <v>2737.2054910072061</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="11">
         <v>2535</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="11">
         <f t="shared" si="6"/>
         <v>1259</v>
       </c>
@@ -3487,7 +3488,7 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>187.29</v>
       </c>
       <c r="G27" s="2">
@@ -3500,10 +3501,10 @@
       <c r="I27" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>15908</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <v>2204</v>
       </c>
       <c r="L27" s="5">
@@ -3520,7 +3521,7 @@
       <c r="O27" s="8">
         <v>14.066000000000001</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="11">
         <v>1100</v>
       </c>
       <c r="Q27" s="11">
@@ -3529,18 +3530,18 @@
       <c r="R27" s="7">
         <v>3012</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="11">
         <f t="shared" si="4"/>
         <v>2801.1600000000003</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="11">
         <f t="shared" si="5"/>
         <v>2612.7431791127119</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="11">
         <v>2437</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="11">
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
@@ -3559,7 +3560,7 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>269.99</v>
       </c>
       <c r="G28" s="2">
@@ -3572,10 +3573,10 @@
       <c r="I28" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>16202</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <v>2223</v>
       </c>
       <c r="L28" s="5">
@@ -3592,7 +3593,7 @@
       <c r="O28" s="8">
         <v>10.127000000000001</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="11">
         <v>730</v>
       </c>
       <c r="Q28" s="11">
@@ -3601,18 +3602,18 @@
       <c r="R28" s="7">
         <v>2225</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="11">
         <f t="shared" si="4"/>
         <v>2069.25</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="11">
         <f t="shared" si="5"/>
         <v>2039.9170939035735</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="11">
         <v>2011</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="11">
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
@@ -3631,7 +3632,7 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>105.02</v>
       </c>
       <c r="G29" s="2">
@@ -3644,10 +3645,10 @@
       <c r="I29" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>14823</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <v>2197</v>
       </c>
       <c r="L29" s="5">
@@ -3664,7 +3665,7 @@
       <c r="O29" s="8">
         <v>10.829000000000001</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="11">
         <v>770</v>
       </c>
       <c r="Q29" s="11">
@@ -3673,18 +3674,18 @@
       <c r="R29" s="7">
         <v>2225</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="11">
         <f t="shared" si="4"/>
         <v>2069.25</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="11">
         <f t="shared" si="5"/>
         <v>2133.6236781588268</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="11">
         <v>2200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="11">
         <f t="shared" si="6"/>
         <v>464</v>
       </c>
@@ -3703,7 +3704,7 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>108.83</v>
       </c>
       <c r="G30" s="2">
@@ -3716,10 +3717,10 @@
       <c r="I30" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>15267</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <v>2266</v>
       </c>
       <c r="L30" s="5">
@@ -3736,7 +3737,7 @@
       <c r="O30" s="8">
         <v>15.73</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="11">
         <v>1100</v>
       </c>
       <c r="Q30" s="11">
@@ -3745,18 +3746,18 @@
       <c r="R30" s="7">
         <v>2681</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="11">
         <f t="shared" si="4"/>
         <v>2493.33</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="11">
         <f t="shared" si="5"/>
         <v>2755.3928667251789</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="11">
         <v>3045</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="11">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
@@ -3775,7 +3776,7 @@
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>153.07</v>
       </c>
       <c r="G31" s="2">
@@ -3788,10 +3789,10 @@
       <c r="I31" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>17357</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <v>2380</v>
       </c>
       <c r="L31" s="5">
@@ -3808,7 +3809,7 @@
       <c r="O31" s="8">
         <v>16.003</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="11">
         <v>940</v>
       </c>
       <c r="Q31" s="11">
@@ -3817,18 +3818,18 @@
       <c r="R31" s="7">
         <v>3012</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="11">
         <f t="shared" si="4"/>
         <v>2801.1600000000003</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="11">
         <f t="shared" si="5"/>
         <v>2852.6075439849769</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="11">
         <v>2905</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="11">
         <f t="shared" si="6"/>
         <v>983</v>
       </c>
